--- a/SpreadSheets/Box/Static/0050_Box_Static.xlsx
+++ b/SpreadSheets/Box/Static/0050_Box_Static.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16545" windowHeight="9405" tabRatio="957" activeTab="8"/>
+    <workbookView windowWidth="24345" windowHeight="12525" tabRatio="957" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ColEnter" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="18">
   <si>
     <t>quadrosTotal</t>
   </si>
@@ -137,6 +137,9 @@
     <t>TriggerExit</t>
   </si>
   <si>
+    <t>Physics</t>
+  </si>
+  <si>
     <t>Simulate</t>
   </si>
 </sst>
@@ -145,15 +148,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,9 +194,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,7 +216,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -190,8 +238,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,69 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,23 +291,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,13 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +333,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,19 +381,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +417,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +459,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,97 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,15 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +578,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -608,13 +611,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,130 +629,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,4020 +839,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Percent!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ColEnter</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Percent!$A$2:$A$290</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
-                <c:pt idx="67" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="93" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="134" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="256" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="258" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="259" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="263" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="268" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="270" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="272" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="273" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="275" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="276" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="278" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="280" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="282" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="283" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="287" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Percent!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ColStay</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Percent!$B$2:$B$290</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
-                <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="0.00%">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="91" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="92" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="93" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="94" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="95" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="96" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="98" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="99" c:formatCode="0.00%">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="100" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="101" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="102" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="103" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="104" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="105" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="106" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="107" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="108" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="109" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="110" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="111" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="113" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="114" c:formatCode="0.00%">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="116" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="117" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="118" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="119" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="120" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="121" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="122" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="123" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="124" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="125" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="126" c:formatCode="0.00%">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="127" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="128" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="129" c:formatCode="0.00%">
-                  <c:v>0.008</c:v>
-                </c:pt>
-                <c:pt idx="130" c:formatCode="0.00%">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="131" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="132" c:formatCode="0.00%">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="133" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="134" c:formatCode="0.00%">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="135" c:formatCode="0.00%">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="136" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="137" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="138" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="139" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="140" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="141" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="142" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="143" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="144" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="145" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="146" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="147" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="148" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="149" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="150" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="151" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="152" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="153" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="155" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="157" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="158" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="159" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="160" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="161" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="162" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="163" c:formatCode="0.00%">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="164" c:formatCode="0.00%">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="165" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="166" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="167" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="168" c:formatCode="0.00%">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="169" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="170" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="171" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="172" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="173" c:formatCode="0.00%">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="174" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="175" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="176" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="177" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="178" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="179" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="180" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="181" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="182" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="183" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="184" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="185" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="186" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="187" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="188" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="189" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="190" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="191" c:formatCode="0.00%">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="192" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="193" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="194" c:formatCode="0.00%">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="195" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="196" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="197" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="198" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="199" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="200" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="201" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="202" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="203" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="204" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="205" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="206" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="207" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="208" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="209" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="210" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="211" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="212" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="213" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="214" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="215" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="216" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="217" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="218" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="219" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="220" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="221" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="222" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="223" c:formatCode="0.00%">
-                  <c:v>0.008</c:v>
-                </c:pt>
-                <c:pt idx="224" c:formatCode="0.00%">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="225" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="226" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="227" c:formatCode="0.00%">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="228" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="229" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="230" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="231" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="232" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="233" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="234" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="235" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="236" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="237" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="238" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="239" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="240" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="241" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="242" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="243" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="244" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="245" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="246" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="247" c:formatCode="0.00%">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="248" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="249" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="250" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="251" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="252" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="253" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="254" c:formatCode="0.00%">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="255" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="256" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="257" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="258" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="259" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="260" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="261" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="262" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="263" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="264" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="265" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="266" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="267" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="268" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="269" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="270" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="271" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="272" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="273" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="274" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="275" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="276" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="277" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="278" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="279" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="280" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="281" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="282" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="283" c:formatCode="0.00%">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="284" c:formatCode="0.00%">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="285" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="286" c:formatCode="0.00%">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="287" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="288" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Percent!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ColExit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Percent!$C$2:$C$290</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
-                <c:pt idx="81" c:formatCode="0.00%">
-                  <c:v>0.008</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="94" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="257" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="259" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="261" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="262" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="263" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="264" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="266" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="267" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="268" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="269" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="271" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="274" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="276" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="279" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="280" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="281" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="282" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="283" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="284" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="285" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="286" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="287" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Percent!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TriggerEnter</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Percent!$D$2:$D$290</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
-                <c:pt idx="39" c:formatCode="0.00%">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="134" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="266" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Percent!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TriggerStay</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Percent!$E$2:$E$290</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
-                <c:pt idx="40" c:formatCode="0.00%">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="97" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="98" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121" c:formatCode="0.00%">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="122" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="129" c:formatCode="0.00%">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="130" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="134" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="162" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="194" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="198" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="213" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="215" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="224" c:formatCode="0.00%">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="225" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="229" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254" c:formatCode="0.00%">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="255" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="256" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="257" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="258" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="259" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="260" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="261" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="262" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="263" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="264" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="265" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="266" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="267" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="268" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="269" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="270" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="271" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="272" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="273" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="274" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="275" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="276" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="277" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="278" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="279" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="280" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="281" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="282" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="283" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="284" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="285" c:formatCode="0.00%">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="286" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="287" c:formatCode="0.00%">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="288" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Percent!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TriggerExit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Percent!$F$2:$F$290</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
-                <c:pt idx="63" c:formatCode="0.00%">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="268" c:formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Percent!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Simulate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Percent!$G$2:$G$290</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
-                <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.021</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.021</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.015</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="0.00%">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="0.00%">
-                  <c:v>0.031</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="0.00%">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="0.00%">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="0.00%">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="0.00%">
-                  <c:v>0.062</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="0.00%">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="0.00%">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="0.00%">
-                  <c:v>0.021</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="0.00%">
-                  <c:v>0.023</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="0.00%">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="0.00%">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="0.00%">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="0.00%">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="0.00%">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="0.00%">
-                  <c:v>0.077</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="0.00%">
-                  <c:v>0.023</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="0.00%">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="0.00%">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="0.00%">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="0.00%">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="0.00%">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="0.00%">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="0.00%">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="0.00%">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="0.00%">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="0.00%">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="0.00%">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="0.00%">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="0.00%">
-                  <c:v>0.023</c:v>
-                </c:pt>
-                <c:pt idx="82" c:formatCode="0.00%">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="0.00%">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="0.00%">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="85" c:formatCode="0.00%">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="86" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="0.00%">
-                  <c:v>0.026</c:v>
-                </c:pt>
-                <c:pt idx="88" c:formatCode="0.00%">
-                  <c:v>0.028</c:v>
-                </c:pt>
-                <c:pt idx="89" c:formatCode="0.00%">
-                  <c:v>0.029</c:v>
-                </c:pt>
-                <c:pt idx="90" c:formatCode="0.00%">
-                  <c:v>0.028</c:v>
-                </c:pt>
-                <c:pt idx="91" c:formatCode="0.00%">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="92" c:formatCode="0.00%">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="93" c:formatCode="0.00%">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="94" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="95" c:formatCode="0.00%">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="96" c:formatCode="0.00%">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="97" c:formatCode="0.00%">
-                  <c:v>0.174</c:v>
-                </c:pt>
-                <c:pt idx="98" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="99" c:formatCode="0.00%">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="100" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="101" c:formatCode="0.00%">
-                  <c:v>0.048</c:v>
-                </c:pt>
-                <c:pt idx="102" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="103" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="104" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="105" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="106" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="107" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="108" c:formatCode="0.00%">
-                  <c:v>0.048</c:v>
-                </c:pt>
-                <c:pt idx="109" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="111" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="112" c:formatCode="0.00%">
-                  <c:v>0.048</c:v>
-                </c:pt>
-                <c:pt idx="114" c:formatCode="0.00%">
-                  <c:v>0.033</c:v>
-                </c:pt>
-                <c:pt idx="115" c:formatCode="0.00%">
-                  <c:v>0.048</c:v>
-                </c:pt>
-                <c:pt idx="116" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="117" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="118" c:formatCode="0.00%">
-                  <c:v>0.048</c:v>
-                </c:pt>
-                <c:pt idx="119" c:formatCode="0.00%">
-                  <c:v>0.048</c:v>
-                </c:pt>
-                <c:pt idx="120" c:formatCode="0.00%">
-                  <c:v>0.044</c:v>
-                </c:pt>
-                <c:pt idx="121" c:formatCode="0.00%">
-                  <c:v>0.058</c:v>
-                </c:pt>
-                <c:pt idx="122" c:formatCode="0.00%">
-                  <c:v>0.046</c:v>
-                </c:pt>
-                <c:pt idx="123" c:formatCode="0.00%">
-                  <c:v>0.046</c:v>
-                </c:pt>
-                <c:pt idx="124" c:formatCode="0.00%">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="125" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="126" c:formatCode="0.00%">
-                  <c:v>0.058</c:v>
-                </c:pt>
-                <c:pt idx="127" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="128" c:formatCode="0.00%">
-                  <c:v>0.027</c:v>
-                </c:pt>
-                <c:pt idx="129" c:formatCode="0.00%">
-                  <c:v>0.079</c:v>
-                </c:pt>
-                <c:pt idx="130" c:formatCode="0.00%">
-                  <c:v>0.207</c:v>
-                </c:pt>
-                <c:pt idx="131" c:formatCode="0.00%">
-                  <c:v>0.053</c:v>
-                </c:pt>
-                <c:pt idx="132" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="133" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="134" c:formatCode="0.00%">
-                  <c:v>0.058</c:v>
-                </c:pt>
-                <c:pt idx="135" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="136" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="137" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="138" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="139" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="140" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="141" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="142" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="143" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="144" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="145" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="146" c:formatCode="0.00%">
-                  <c:v>0.044</c:v>
-                </c:pt>
-                <c:pt idx="147" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="148" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="149" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="150" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="151" c:formatCode="0.00%">
-                  <c:v>0.036</c:v>
-                </c:pt>
-                <c:pt idx="153" c:formatCode="0.00%">
-                  <c:v>0.059</c:v>
-                </c:pt>
-                <c:pt idx="155" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="156" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="157" c:formatCode="0.00%">
-                  <c:v>0.056</c:v>
-                </c:pt>
-                <c:pt idx="158" c:formatCode="0.00%">
-                  <c:v>0.056</c:v>
-                </c:pt>
-                <c:pt idx="159" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="160" c:formatCode="0.00%">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="161" c:formatCode="0.00%">
-                  <c:v>0.066</c:v>
-                </c:pt>
-                <c:pt idx="162" c:formatCode="0.00%">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="163" c:formatCode="0.00%">
-                  <c:v>0.047</c:v>
-                </c:pt>
-                <c:pt idx="164" c:formatCode="0.00%">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="165" c:formatCode="0.00%">
-                  <c:v>0.064</c:v>
-                </c:pt>
-                <c:pt idx="166" c:formatCode="0.00%">
-                  <c:v>0.072</c:v>
-                </c:pt>
-                <c:pt idx="167" c:formatCode="0.00%">
-                  <c:v>0.053</c:v>
-                </c:pt>
-                <c:pt idx="168" c:formatCode="0.00%">
-                  <c:v>0.056</c:v>
-                </c:pt>
-                <c:pt idx="169" c:formatCode="0.00%">
-                  <c:v>0.052</c:v>
-                </c:pt>
-                <c:pt idx="170" c:formatCode="0.00%">
-                  <c:v>0.044</c:v>
-                </c:pt>
-                <c:pt idx="171" c:formatCode="0.00%">
-                  <c:v>0.043</c:v>
-                </c:pt>
-                <c:pt idx="172" c:formatCode="0.00%">
-                  <c:v>0.043</c:v>
-                </c:pt>
-                <c:pt idx="173" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="174" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="175" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="176" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="177" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="178" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="179" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="180" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="181" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="182" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="183" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="184" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="185" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="186" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="187" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="188" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="189" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="190" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="191" c:formatCode="0.00%">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="192" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="193" c:formatCode="0.00%">
-                  <c:v>0.053</c:v>
-                </c:pt>
-                <c:pt idx="194" c:formatCode="0.00%">
-                  <c:v>0.156</c:v>
-                </c:pt>
-                <c:pt idx="195" c:formatCode="0.00%">
-                  <c:v>0.049</c:v>
-                </c:pt>
-                <c:pt idx="196" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="197" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="198" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="199" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="200" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="201" c:formatCode="0.00%">
-                  <c:v>0.036</c:v>
-                </c:pt>
-                <c:pt idx="202" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="203" c:formatCode="0.00%">
-                  <c:v>0.043</c:v>
-                </c:pt>
-                <c:pt idx="204" c:formatCode="0.00%">
-                  <c:v>0.043</c:v>
-                </c:pt>
-                <c:pt idx="205" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="206" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="207" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="208" c:formatCode="0.00%">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="209" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="210" c:formatCode="0.00%">
-                  <c:v>0.043</c:v>
-                </c:pt>
-                <c:pt idx="211" c:formatCode="0.00%">
-                  <c:v>0.036</c:v>
-                </c:pt>
-                <c:pt idx="212" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="213" c:formatCode="0.00%">
-                  <c:v>0.065</c:v>
-                </c:pt>
-                <c:pt idx="214" c:formatCode="0.00%">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="215" c:formatCode="0.00%">
-                  <c:v>0.053</c:v>
-                </c:pt>
-                <c:pt idx="216" c:formatCode="0.00%">
-                  <c:v>0.043</c:v>
-                </c:pt>
-                <c:pt idx="217" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="218" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="219" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="220" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="221" c:formatCode="0.00%">
-                  <c:v>0.043</c:v>
-                </c:pt>
-                <c:pt idx="222" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="223" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="224" c:formatCode="0.00%">
-                  <c:v>0.088</c:v>
-                </c:pt>
-                <c:pt idx="225" c:formatCode="0.00%">
-                  <c:v>0.193</c:v>
-                </c:pt>
-                <c:pt idx="226" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="227" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="228" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="229" c:formatCode="0.00%">
-                  <c:v>0.048</c:v>
-                </c:pt>
-                <c:pt idx="230" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="231" c:formatCode="0.00%">
-                  <c:v>0.036</c:v>
-                </c:pt>
-                <c:pt idx="232" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="233" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="234" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="235" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="236" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="237" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="238" c:formatCode="0.00%">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="239" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="240" c:formatCode="0.00%">
-                  <c:v>0.038</c:v>
-                </c:pt>
-                <c:pt idx="241" c:formatCode="0.00%">
-                  <c:v>0.036</c:v>
-                </c:pt>
-                <c:pt idx="242" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="243" c:formatCode="0.00%">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="244" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="245" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="246" c:formatCode="0.00%">
-                  <c:v>0.027</c:v>
-                </c:pt>
-                <c:pt idx="247" c:formatCode="0.00%">
-                  <c:v>0.055</c:v>
-                </c:pt>
-                <c:pt idx="248" c:formatCode="0.00%">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="249" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="250" c:formatCode="0.00%">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="251" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="252" c:formatCode="0.00%">
-                  <c:v>0.049</c:v>
-                </c:pt>
-                <c:pt idx="253" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="254" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="255" c:formatCode="0.00%">
-                  <c:v>0.033</c:v>
-                </c:pt>
-                <c:pt idx="256" c:formatCode="0.00%">
-                  <c:v>0.036</c:v>
-                </c:pt>
-                <c:pt idx="257" c:formatCode="0.00%">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="258" c:formatCode="0.00%">
-                  <c:v>0.184</c:v>
-                </c:pt>
-                <c:pt idx="259" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="260" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="261" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="262" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="263" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="264" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="265" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="266" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="267" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="268" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="269" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="270" c:formatCode="0.00%">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="271" c:formatCode="0.00%">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="272" c:formatCode="0.00%">
-                  <c:v>0.036</c:v>
-                </c:pt>
-                <c:pt idx="273" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="274" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="275" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="276" c:formatCode="0.00%">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="277" c:formatCode="0.00%">
-                  <c:v>0.033</c:v>
-                </c:pt>
-                <c:pt idx="278" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="279" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="280" c:formatCode="0.00%">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="281" c:formatCode="0.00%">
-                  <c:v>0.029</c:v>
-                </c:pt>
-                <c:pt idx="282" c:formatCode="0.00%">
-                  <c:v>0.044</c:v>
-                </c:pt>
-                <c:pt idx="283" c:formatCode="0.00%">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="284" c:formatCode="0.00%">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="285" c:formatCode="0.00%">
-                  <c:v>0.059</c:v>
-                </c:pt>
-                <c:pt idx="286" c:formatCode="0.00%">
-                  <c:v>0.181</c:v>
-                </c:pt>
-                <c:pt idx="287" c:formatCode="0.00%">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="288" c:formatCode="0.00%">
-                  <c:v>0.033</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="544103649"/>
-        <c:axId val="109626950"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="544103649"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="109626950"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="109626950"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="544103649"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -7769,7 +3758,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Simulate</c:v>
+                  <c:v>Physics</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8852,7 +4841,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11789,7 +7778,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Simulate</c:v>
+                  <c:v>Physics</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12872,7 +8861,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -16899,7 +12888,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -21053,46 +17042,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -23144,553 +19093,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="2730500" y="1409700"/>
-        <a:ext cx="4572000" cy="2743200"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -23698,12 +19114,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5178425" y="49920525"/>
+        <a:off x="5464175" y="209550"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24292,11 +19708,9 @@
       <c r="D71">
         <v>70</v>
       </c>
-      <c r="E71"/>
       <c r="F71">
         <v>70</v>
       </c>
-      <c r="G71"/>
       <c r="H71">
         <v>70</v>
       </c>
@@ -26605,7 +22019,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -27194,7 +22608,6 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66"/>
       <c r="G66">
         <v>0.31</v>
       </c>
@@ -27287,7 +22700,6 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73"/>
       <c r="G73">
         <v>0.38</v>
       </c>
@@ -27316,7 +22728,6 @@
       <c r="E75">
         <v>0.01</v>
       </c>
-      <c r="F75"/>
       <c r="G75">
         <v>0.37</v>
       </c>
@@ -27431,7 +22842,6 @@
       <c r="B84">
         <v>0.01</v>
       </c>
-      <c r="C84"/>
       <c r="E84">
         <v>0</v>
       </c>
@@ -27922,7 +23332,6 @@
       <c r="A113">
         <v>0</v>
       </c>
-      <c r="B113"/>
       <c r="E113">
         <v>0.01</v>
       </c>
@@ -27960,7 +23369,6 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="E115"/>
       <c r="G115">
         <v>0.73</v>
       </c>
@@ -27969,7 +23377,6 @@
       <c r="A116">
         <v>0</v>
       </c>
-      <c r="B116"/>
       <c r="C116">
         <v>0</v>
       </c>
@@ -28626,7 +24033,6 @@
       <c r="A159">
         <v>0</v>
       </c>
-      <c r="B159"/>
       <c r="C159">
         <v>0</v>
       </c>
@@ -30455,11 +25861,9 @@
       <c r="C281">
         <v>0</v>
       </c>
-      <c r="D281"/>
       <c r="E281">
         <v>0</v>
       </c>
-      <c r="F281"/>
       <c r="G281">
         <v>1.12</v>
       </c>
@@ -30822,7 +26226,7 @@
   <sheetPr/>
   <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A290" sqref="A1:G290"/>
     </sheetView>
   </sheetViews>
@@ -30851,7 +26255,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -31440,7 +26844,6 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66"/>
       <c r="G66">
         <v>35500</v>
       </c>
@@ -31533,7 +26936,6 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73"/>
       <c r="G73">
         <v>49800</v>
       </c>
@@ -31562,7 +26964,6 @@
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75"/>
       <c r="G75">
         <v>49800</v>
       </c>
@@ -31677,7 +27078,6 @@
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84"/>
       <c r="E84">
         <v>0</v>
       </c>
@@ -32126,7 +27526,6 @@
       <c r="A110">
         <v>0</v>
       </c>
-      <c r="B110"/>
       <c r="C110">
         <v>0</v>
       </c>
@@ -32183,7 +27582,6 @@
       <c r="A114">
         <v>0</v>
       </c>
-      <c r="B114"/>
       <c r="C114">
         <v>0</v>
       </c>
@@ -32207,7 +27605,6 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="E115"/>
       <c r="G115">
         <v>369700</v>
       </c>
@@ -34712,7 +30109,6 @@
       <c r="E281">
         <v>0</v>
       </c>
-      <c r="F281"/>
       <c r="G281">
         <v>227500</v>
       </c>
@@ -34727,7 +30123,6 @@
       <c r="C282">
         <v>0</v>
       </c>
-      <c r="D282"/>
       <c r="E282">
         <v>0</v>
       </c>
@@ -36750,7 +32145,6 @@
       <c r="D111">
         <v>110</v>
       </c>
-      <c r="E111"/>
       <c r="F111">
         <v>110</v>
       </c>
@@ -42489,11 +37883,9 @@
       <c r="D51">
         <v>50</v>
       </c>
-      <c r="E51"/>
       <c r="F51">
         <v>50</v>
       </c>
-      <c r="G51"/>
       <c r="H51">
         <v>50</v>
       </c>
@@ -42525,11 +37917,9 @@
       <c r="D61">
         <v>60</v>
       </c>
-      <c r="E61"/>
       <c r="F61">
         <v>60</v>
       </c>
-      <c r="G61"/>
       <c r="H61">
         <v>60</v>
       </c>
@@ -43226,7 +38616,6 @@
       <c r="F281">
         <v>280</v>
       </c>
-      <c r="G281"/>
       <c r="H281">
         <v>280</v>
       </c>
@@ -43391,15 +38780,12 @@
       <c r="C42" s="1">
         <v>0.005</v>
       </c>
-      <c r="D42"/>
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42"/>
       <c r="G42">
         <v>0.09</v>
       </c>
-      <c r="H42"/>
       <c r="I42">
         <v>0</v>
       </c>
@@ -43549,15 +38935,12 @@
       <c r="C52" s="1">
         <v>0</v>
       </c>
-      <c r="D52"/>
       <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52"/>
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52"/>
       <c r="I52">
         <v>0</v>
       </c>
@@ -43707,15 +39090,12 @@
       <c r="C62" s="1">
         <v>0</v>
       </c>
-      <c r="D62"/>
       <c r="E62">
         <v>10</v>
       </c>
-      <c r="F62"/>
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62"/>
       <c r="I62">
         <v>0</v>
       </c>
@@ -43865,15 +39245,12 @@
       <c r="C72" s="1">
         <v>0</v>
       </c>
-      <c r="D72"/>
       <c r="E72">
         <v>8</v>
       </c>
-      <c r="F72"/>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72"/>
       <c r="I72">
         <v>0</v>
       </c>
@@ -44023,15 +39400,12 @@
       <c r="C82" s="1">
         <v>0</v>
       </c>
-      <c r="D82"/>
       <c r="E82">
         <v>12</v>
       </c>
-      <c r="F82"/>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82"/>
       <c r="I82">
         <v>0</v>
       </c>
@@ -44181,15 +39555,12 @@
       <c r="C92" s="1">
         <v>0</v>
       </c>
-      <c r="D92"/>
       <c r="E92">
         <v>12</v>
       </c>
-      <c r="F92"/>
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92"/>
       <c r="I92">
         <v>0</v>
       </c>
@@ -44339,15 +39710,12 @@
       <c r="C102" s="1">
         <v>0</v>
       </c>
-      <c r="D102"/>
       <c r="E102">
         <v>14</v>
       </c>
-      <c r="F102"/>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102"/>
       <c r="I102">
         <v>0</v>
       </c>
@@ -44630,15 +39998,12 @@
       <c r="C122" s="1">
         <v>0</v>
       </c>
-      <c r="D122"/>
       <c r="E122">
         <v>18</v>
       </c>
-      <c r="F122"/>
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="H122"/>
       <c r="I122">
         <v>0</v>
       </c>
@@ -44788,15 +40153,12 @@
       <c r="C132" s="1">
         <v>0</v>
       </c>
-      <c r="D132"/>
       <c r="E132">
         <v>18</v>
       </c>
-      <c r="F132"/>
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132"/>
       <c r="I132">
         <v>0</v>
       </c>
@@ -44946,15 +40308,12 @@
       <c r="C142" s="1">
         <v>0</v>
       </c>
-      <c r="D142"/>
       <c r="E142">
         <v>20</v>
       </c>
-      <c r="F142"/>
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142"/>
       <c r="I142">
         <v>0</v>
       </c>
@@ -45101,13 +40460,9 @@
       <c r="C152" s="1">
         <v>0</v>
       </c>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="H152"/>
       <c r="I152">
         <v>0</v>
       </c>
@@ -45241,15 +40596,12 @@
       <c r="C162" s="1">
         <v>0</v>
       </c>
-      <c r="D162"/>
       <c r="E162">
         <v>18</v>
       </c>
-      <c r="F162"/>
       <c r="G162">
         <v>0.01</v>
       </c>
-      <c r="H162"/>
       <c r="I162">
         <v>0</v>
       </c>
@@ -45399,15 +40751,12 @@
       <c r="C172" s="1">
         <v>0</v>
       </c>
-      <c r="D172"/>
       <c r="E172">
         <v>18</v>
       </c>
-      <c r="F172"/>
       <c r="G172">
         <v>0</v>
       </c>
-      <c r="H172"/>
       <c r="I172">
         <v>0</v>
       </c>
@@ -45557,15 +40906,12 @@
       <c r="C182" s="1">
         <v>0</v>
       </c>
-      <c r="D182"/>
       <c r="E182">
         <v>18</v>
       </c>
-      <c r="F182"/>
       <c r="G182">
         <v>0</v>
       </c>
-      <c r="H182"/>
       <c r="I182">
         <v>0</v>
       </c>
@@ -45715,15 +41061,12 @@
       <c r="C192" s="1">
         <v>0</v>
       </c>
-      <c r="D192"/>
       <c r="E192">
         <v>18</v>
       </c>
-      <c r="F192"/>
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="H192"/>
       <c r="I192">
         <v>0</v>
       </c>
@@ -45873,15 +41216,12 @@
       <c r="C202" s="1">
         <v>0</v>
       </c>
-      <c r="D202"/>
       <c r="E202">
         <v>14</v>
       </c>
-      <c r="F202"/>
       <c r="G202">
         <v>0.01</v>
       </c>
-      <c r="H202"/>
       <c r="I202">
         <v>0</v>
       </c>
@@ -46031,15 +41371,12 @@
       <c r="C212" s="1">
         <v>0</v>
       </c>
-      <c r="D212"/>
       <c r="E212">
         <v>14</v>
       </c>
-      <c r="F212"/>
       <c r="G212">
         <v>0</v>
       </c>
-      <c r="H212"/>
       <c r="I212">
         <v>0</v>
       </c>
@@ -46189,15 +41526,12 @@
       <c r="C222" s="1">
         <v>0</v>
       </c>
-      <c r="D222"/>
       <c r="E222">
         <v>14</v>
       </c>
-      <c r="F222"/>
       <c r="G222">
         <v>0</v>
       </c>
-      <c r="H222"/>
       <c r="I222">
         <v>0</v>
       </c>
@@ -46347,15 +41681,12 @@
       <c r="C232" s="1">
         <v>0</v>
       </c>
-      <c r="D232"/>
       <c r="E232">
         <v>14</v>
       </c>
-      <c r="F232"/>
       <c r="G232">
         <v>0.02</v>
       </c>
-      <c r="H232"/>
       <c r="I232">
         <v>0</v>
       </c>
@@ -46505,15 +41836,12 @@
       <c r="C242" s="1">
         <v>0</v>
       </c>
-      <c r="D242"/>
       <c r="E242">
         <v>14</v>
       </c>
-      <c r="F242"/>
       <c r="G242">
         <v>0</v>
       </c>
-      <c r="H242"/>
       <c r="I242">
         <v>0</v>
       </c>
@@ -46663,15 +41991,12 @@
       <c r="C252" s="1">
         <v>0</v>
       </c>
-      <c r="D252"/>
       <c r="E252">
         <v>12</v>
       </c>
-      <c r="F252"/>
       <c r="G252">
         <v>0</v>
       </c>
-      <c r="H252"/>
       <c r="I252">
         <v>0</v>
       </c>
@@ -46821,15 +42146,12 @@
       <c r="C262" s="1">
         <v>0</v>
       </c>
-      <c r="D262"/>
       <c r="E262">
         <v>12</v>
       </c>
-      <c r="F262"/>
       <c r="G262">
         <v>0.02</v>
       </c>
-      <c r="H262"/>
       <c r="I262">
         <v>0</v>
       </c>
@@ -46979,15 +42301,12 @@
       <c r="C272" s="1">
         <v>0</v>
       </c>
-      <c r="D272"/>
       <c r="E272">
         <v>12</v>
       </c>
-      <c r="F272"/>
       <c r="G272">
         <v>0</v>
       </c>
-      <c r="H272"/>
       <c r="I272">
         <v>0</v>
       </c>
@@ -47137,15 +42456,12 @@
       <c r="C282" s="1">
         <v>0</v>
       </c>
-      <c r="D282"/>
       <c r="E282">
         <v>12</v>
       </c>
-      <c r="F282"/>
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="H282"/>
       <c r="I282">
         <v>0</v>
       </c>
@@ -48129,11 +43445,9 @@
       <c r="C192" s="1">
         <v>0</v>
       </c>
-      <c r="D192"/>
       <c r="E192">
         <v>2</v>
       </c>
-      <c r="F192"/>
       <c r="G192">
         <v>0</v>
       </c>
@@ -48373,7 +43687,6 @@
       <c r="B281">
         <v>280</v>
       </c>
-      <c r="C281"/>
       <c r="D281">
         <v>280</v>
       </c>
@@ -50118,7 +45431,6 @@
       <c r="D111">
         <v>110</v>
       </c>
-      <c r="E111"/>
       <c r="F111">
         <v>110</v>
       </c>
@@ -53109,8 +48421,8 @@
   <sheetPr/>
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="G290" sqref="A1:G290"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -53852,7 +49164,6 @@
       <c r="E74" s="1">
         <v>0</v>
       </c>
-      <c r="F74"/>
       <c r="G74" s="1">
         <v>0.019</v>
       </c>
@@ -56994,11 +52305,9 @@
       <c r="B280" s="1">
         <v>0.002</v>
       </c>
-      <c r="C280"/>
       <c r="E280" s="1">
         <v>0</v>
       </c>
-      <c r="F280"/>
       <c r="G280" s="1">
         <v>0.037</v>
       </c>
@@ -57027,7 +52336,6 @@
       <c r="C282" s="1">
         <v>0</v>
       </c>
-      <c r="D282"/>
       <c r="E282" s="1">
         <v>0</v>
       </c>
@@ -57345,8 +52653,8 @@
   <sheetPr/>
   <dimension ref="A1:G308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G290" sqref="A1:G290"/>
+    <sheetView topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -57963,7 +53271,6 @@
       <c r="E66">
         <v>8</v>
       </c>
-      <c r="F66"/>
       <c r="G66">
         <v>1</v>
       </c>
@@ -58056,7 +53363,6 @@
       <c r="E73">
         <v>8</v>
       </c>
-      <c r="F73"/>
       <c r="G73">
         <v>1</v>
       </c>
@@ -58085,7 +53391,6 @@
       <c r="E75">
         <v>12</v>
       </c>
-      <c r="F75"/>
       <c r="G75">
         <v>1</v>
       </c>
@@ -58200,7 +53505,6 @@
       <c r="B84">
         <v>24</v>
       </c>
-      <c r="C84"/>
       <c r="E84">
         <v>12</v>
       </c>
@@ -58632,7 +53936,6 @@
       <c r="D109">
         <v>2</v>
       </c>
-      <c r="E109"/>
       <c r="F109">
         <v>2</v>
       </c>
@@ -58661,7 +53964,6 @@
       <c r="A111">
         <v>10</v>
       </c>
-      <c r="B111"/>
       <c r="E111">
         <v>26</v>
       </c>
@@ -58715,7 +54017,6 @@
       <c r="A115">
         <v>12</v>
       </c>
-      <c r="B115"/>
       <c r="C115">
         <v>6</v>
       </c>
@@ -59339,7 +54640,6 @@
       <c r="A155">
         <v>2</v>
       </c>
-      <c r="B155"/>
       <c r="C155">
         <v>2</v>
       </c>
@@ -59354,7 +54654,6 @@
       <c r="A156">
         <v>2</v>
       </c>
-      <c r="B156"/>
       <c r="C156">
         <v>4</v>
       </c>
@@ -61228,7 +56527,6 @@
       <c r="E281">
         <v>12</v>
       </c>
-      <c r="F281"/>
       <c r="G281">
         <v>1</v>
       </c>
@@ -61243,7 +56541,6 @@
       <c r="C282">
         <v>2</v>
       </c>
-      <c r="D282"/>
       <c r="E282">
         <v>12</v>
       </c>
